--- a/data/trans_bre/P26-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P26-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.817422381793182</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4798589887027235</v>
+        <v>0.4798589887027221</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3249289353024193</v>
@@ -649,7 +649,7 @@
         <v>0.07141394537557343</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0550004367965795</v>
+        <v>0.05500043679657934</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.881545158595435</v>
+        <v>4.212575942007503</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.690152525649662</v>
+        <v>4.670214498565602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.269607571069037</v>
+        <v>-3.013534603761173</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.995437280169713</v>
+        <v>-3.545299582920781</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1250604232383244</v>
+        <v>0.1373382373100989</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.152655357285164</v>
+        <v>0.1522286708743736</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1248170662243661</v>
+        <v>-0.1053972800385671</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2790324288186697</v>
+        <v>-0.3167811418662721</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.60425522871987</v>
+        <v>14.27491269902462</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.12902904353483</v>
+        <v>15.41744544165442</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.035864066290462</v>
+        <v>6.871951660180777</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.59884101668134</v>
+        <v>3.603987622148193</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5702007148018712</v>
+        <v>0.5647485331731659</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.600205426563107</v>
+        <v>0.6038738070169</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3134104443226914</v>
+        <v>0.2994651937081274</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5410508732079659</v>
+        <v>0.535160827309543</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.495337385149049</v>
+        <v>4.615335277698636</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.210691020368958</v>
+        <v>2.897686469199609</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.44752272348388</v>
+        <v>-2.487985037469043</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.283252587899249</v>
+        <v>1.290842137141643</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1447101555993278</v>
+        <v>0.1480442034071331</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09324141470694128</v>
+        <v>0.0868542175457177</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09577574615879238</v>
+        <v>-0.1011050008203465</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1063184261931235</v>
+        <v>0.1058332932805013</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.59795021516167</v>
+        <v>13.29683063809316</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.94602346413817</v>
+        <v>11.51348587601931</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.567279025944714</v>
+        <v>5.73194533796676</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.546369493619889</v>
+        <v>7.830856017574067</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5160048667670631</v>
+        <v>0.5036765671146596</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3953544210190223</v>
+        <v>0.3818993757808011</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2512311621858709</v>
+        <v>0.2561769380890274</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9743473432442628</v>
+        <v>1.041800432547507</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.586365312098197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.47307809937635</v>
+        <v>4.473078099376353</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2082733958663177</v>
@@ -849,7 +849,7 @@
         <v>0.2342571975656491</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3894981775771361</v>
+        <v>0.3894981775771363</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3683209771313999</v>
+        <v>0.5900956094086345</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.929799263558736</v>
+        <v>2.468008922727583</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.795136199908965</v>
+        <v>1.747405989346265</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2396871661372288</v>
+        <v>0.5434378491452918</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.01090492483518</v>
+        <v>0.01427391456427514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08467112236634174</v>
+        <v>0.07202948357003458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05829651417297456</v>
+        <v>0.05498204824367726</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.01990599141847607</v>
+        <v>0.04227502289488012</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.40070276663339</v>
+        <v>11.2554154366569</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.59503048252404</v>
+        <v>13.24103938755546</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.7342679133055</v>
+        <v>11.4829953117147</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.049961388432822</v>
+        <v>8.523211298669182</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4126386290721363</v>
+        <v>0.4097283224721016</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4526861427265302</v>
+        <v>0.439947140482574</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4538269214627902</v>
+        <v>0.4453412960830288</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8785354950963731</v>
+        <v>0.98098535323247</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.549923986386587</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.8296009203140498</v>
+        <v>-0.829600920314047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3273536832015335</v>
@@ -949,7 +949,7 @@
         <v>-0.1046903247000018</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.05347948971863158</v>
+        <v>-0.0534794897186314</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.816425865501167</v>
+        <v>4.63341059432996</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.823054381342817</v>
+        <v>-5.424977321393647</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-6.790565274081692</v>
+        <v>-6.663830730638553</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.532926288624068</v>
+        <v>-4.142946269954819</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1612947151864048</v>
+        <v>0.1505915823315038</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1221154210230991</v>
+        <v>-0.1403213269951905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2588446719256953</v>
+        <v>-0.249369461868257</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2496008074231494</v>
+        <v>-0.2358170527044303</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.11947396599261</v>
+        <v>13.33557297062775</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.286945368307469</v>
+        <v>3.706129699952523</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.516079861209285</v>
+        <v>1.317891777386558</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.417259985736984</v>
+        <v>2.326231394897151</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5071737656871836</v>
+        <v>0.5190556886306035</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.124774081599066</v>
+        <v>0.1046201584131796</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06785279392187507</v>
+        <v>0.06381441058219378</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1812434352358825</v>
+        <v>0.1817345340839958</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.768666929451219</v>
+        <v>6.119444654684195</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.397675241654708</v>
+        <v>3.445521672649242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6551070360245608</v>
+        <v>-0.6696835954404019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4151961847494599</v>
+        <v>0.4682264909338003</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.193870582212112</v>
+        <v>0.2060702791700034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09725913416171456</v>
+        <v>0.10014045496428</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.02526916721508067</v>
+        <v>-0.02491955478582089</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.03339594364025417</v>
+        <v>0.03424000750915685</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.78018749237298</v>
+        <v>10.65198684126559</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.33080679936058</v>
+        <v>8.438586119832783</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.585003771586143</v>
+        <v>3.63644828901006</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.045644032883298</v>
+        <v>3.89156258294265</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3898549746126782</v>
+        <v>0.3850597884228764</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2582278498851703</v>
+        <v>0.2693080392787512</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.14900886423905</v>
+        <v>0.1496076234878124</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.390264051887879</v>
+        <v>0.3717504878675192</v>
       </c>
     </row>
     <row r="19">
